--- a/plan_interview.xlsx
+++ b/plan_interview.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
     <sheet name="Behavior" sheetId="3" r:id="rId2"/>
     <sheet name="Tech" sheetId="2" r:id="rId3"/>
     <sheet name="System Design" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="275">
   <si>
     <t>2017.2.2</t>
   </si>
@@ -144,9 +145,6 @@
   </si>
   <si>
     <t>Scalability for Dummies</t>
-  </si>
-  <si>
-    <t>Part 1 - Clone</t>
   </si>
   <si>
     <t>Load balancer</t>
@@ -479,8 +477,590 @@
     <t>With Redis and a clever key'ing there may be a chance that you even can get completely rid of a database.</t>
   </si>
   <si>
+    <t>Part 4- Asynchronism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To avoid such a "please wait a while"  - situation, asynchronism needs to be done. And what's good for a bakery, is maybe also good for your web service or app </t>
+  </si>
+  <si>
+    <t>In general, there are two ways /paradigms asynchronism can be done</t>
+  </si>
+  <si>
+    <t>Async #1</t>
+  </si>
+  <si>
+    <t>Async #2</t>
+  </si>
+  <si>
+    <t>pre processing for some tasks which need a lot of time to be processed</t>
+  </si>
+  <si>
+    <t>dynamic web page -&gt; static web page(HTML)</t>
+  </si>
+  <si>
+    <t>for request, not in cache or static web page</t>
+  </si>
+  <si>
+    <t>using job queue, and immediately signal back to the users</t>
+  </si>
+  <si>
+    <t>RabbitMQ</t>
+  </si>
+  <si>
+    <t>System Design Interview Tips</t>
+  </si>
+  <si>
+    <t>Clarify the constaints and identify the user cases</t>
+  </si>
+  <si>
+    <t>Scope of System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User cases indicate </t>
+  </si>
+  <si>
+    <t>the main function of system</t>
+  </si>
+  <si>
+    <t>constraints list the scale of the system such as requests per second, requests type, data written per second, data read per second</t>
+  </si>
+  <si>
+    <t>High level architecture design</t>
+  </si>
+  <si>
+    <t>Sketch the important component and connection between them</t>
+  </si>
+  <si>
+    <t>Usually, a scalable system includes web server(load balancer), service(service partition), database(master/slave database)</t>
+  </si>
+  <si>
+    <t>Component Design</t>
+  </si>
+  <si>
+    <t>For each component, you need to write the specific APIs for each component</t>
+  </si>
+  <si>
+    <t>OOD design for a particular function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need to design the database schema </t>
+  </si>
+  <si>
+    <t>How to ace a system desgin interview</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system design interview is all about </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>communication</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Whatever solution you come up with during the interview is just a side effect. What we actually care about is the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>process</t>
+    </r>
+  </si>
+  <si>
+    <t>We take ownership of open-ended problems</t>
+  </si>
+  <si>
+    <t>We need people we can trust to do the right thing without a lot of supervision-people  who can own large projects and take them consistently in the right direction</t>
+  </si>
+  <si>
+    <t>It' an open-ended conversation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usually we'll start by asking you to design a system that performs a given task. </t>
+  </si>
+  <si>
+    <t>The prompt will be simple, but don't be fooled - these problems are wide and bottomless, and the point of the interview is to see how much volume you can cover in 45 minutes</t>
+  </si>
+  <si>
+    <t>For the most part, you'll be steering the conversation. It's up to you to understand the problem.</t>
+  </si>
+  <si>
+    <t>asking question</t>
+  </si>
+  <si>
+    <t>sketching diagram on the board</t>
+  </si>
+  <si>
+    <t>bouncing ideas off your interviewer</t>
+  </si>
+  <si>
+    <t>constaints</t>
+  </si>
+  <si>
+    <t>What kind of inputs does your system need to handle</t>
+  </si>
+  <si>
+    <t>You have to get a sense for the scope of the problem before you start exploring the space of possible solutions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No single answer </t>
+  </si>
+  <si>
+    <t>Everything is a tradeoff</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systems are complex, and when you're designing a system you're grappling with its full complexity. </t>
+  </si>
+  <si>
+    <t>Given this, there are many topics you should be familiar with, such as</t>
+  </si>
+  <si>
+    <t>Cucurrency</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>Abstraction</t>
+  </si>
+  <si>
+    <t>Real-world performance</t>
+  </si>
+  <si>
+    <t>Estimation</t>
+  </si>
+  <si>
+    <t>Availability and Reliability</t>
+  </si>
+  <si>
+    <t>thread, deadlock, and starvation.</t>
+  </si>
+  <si>
+    <t>Do you know how to parallelize algorithm</t>
+  </si>
+  <si>
+    <t>consistency and coherence</t>
+  </si>
+  <si>
+    <t>roughly understand IPC and TCP/IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the difference between throughput and latency </t>
+  </si>
+  <si>
+    <t>and where each is the relevent factor</t>
+  </si>
+  <si>
+    <t>OS, filesystem, database, the various levels of caching in the modern OS?</t>
+  </si>
+  <si>
+    <t>You should be familiar with the speed of everything your computer can do</t>
+  </si>
+  <si>
+    <t>include the relative performance of RAM, disk, SSD and network</t>
+  </si>
+  <si>
+    <t>distributed envirnoment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you know how to design a system to cope with network failure? </t>
+  </si>
+  <si>
+    <t>duralbility</t>
+  </si>
+  <si>
+    <t>We're not looking for mastery of all these topics, but looking for familarity</t>
+  </si>
+  <si>
+    <t>How to prepare?</t>
+  </si>
+  <si>
+    <t>Do mock design sessions</t>
+  </si>
+  <si>
+    <t>Grap an empty room and a fellow engineer, and ask them to give a design problem, preferably related to something they have worked on</t>
+  </si>
+  <si>
+    <t>Work on actual system</t>
+  </si>
+  <si>
+    <t>actually focus on the architecture and the tradeoffs behind each decision.</t>
+  </si>
+  <si>
+    <t>Contirbute to OSS or build something with a friend</t>
+  </si>
+  <si>
+    <t>Treat your class projects as more than just academic exercise</t>
+  </si>
+  <si>
+    <t>As with most things, the best way to learn is by doing</t>
+  </si>
+  <si>
+    <t>Do back-of-the-envelope calculations for something you're building and then write micro-benchmarks to verify them</t>
+  </si>
+  <si>
+    <t>Dig into the performance characteristics of an open source system</t>
+  </si>
+  <si>
+    <t>trade off</t>
+  </si>
+  <si>
+    <t>Learn how databases and operating system work</t>
+  </si>
+  <si>
+    <t>https://www.hiredintech.com/courses/system-design</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>http://www.aosabook.org/en/index.html</t>
+  </si>
+  <si>
+    <t>Scalable Web Architecture and Distributed Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open source software has become a fundamental building block for some of the biggest websites. </t>
+  </si>
+  <si>
+    <t>Open source software has become a fundamental building block for some of the biggest websites. And as those websites have grown, best practices and guiding principles around their architecture have emerged. This chapter seeks to cover some of the key issues to consider when designing large websites, as well as some of the building blocks used to achieve these goal.</t>
+  </si>
+  <si>
+    <t>1.1 Principles of web distributed systems design.</t>
+  </si>
+  <si>
+    <t>1.1 Principles of Web Distributed Systems Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What exactly does it mean to build and operate a scalable web site or application? </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">understanding some of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>consideration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>tradeoffs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> behind big websites </t>
+    </r>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>Manageability</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The uptime of a website is absolutely critical to the reputation and functionality of many companies. </t>
+  </si>
+  <si>
+    <t>The speed of web sites affects usage and user satisfaction</t>
+  </si>
+  <si>
+    <t>Fast responses and low latency is key</t>
+  </si>
+  <si>
+    <t>Being unavailable for even minutes can result in thousands or millions of dallars in lost revenue</t>
+  </si>
+  <si>
+    <t>Rapid recovery in the event of partial system failurs</t>
+  </si>
+  <si>
+    <t>Easy for adding more storage capacity</t>
+  </si>
+  <si>
+    <t>How much additional traffic can it handle</t>
+  </si>
+  <si>
+    <t>How many more transactions can be processed</t>
+  </si>
+  <si>
+    <t>1.2 The basics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When it comes to system architecture there are a few things to consider </t>
+  </si>
+  <si>
+    <t>what are the right pieces</t>
+  </si>
+  <si>
+    <t>how these pieces fit together</t>
+  </si>
+  <si>
+    <t>what are the right tradeoffs</t>
+  </si>
+  <si>
+    <t>Investing in scaling before it is needed is generally not a smart business proposition</t>
+  </si>
+  <si>
+    <t>This section is focused on some of the core factors that are central to almost  all large web applications</t>
+  </si>
+  <si>
+    <t>Services, redundancy, partition, and handling failure</t>
+  </si>
+  <si>
+    <t>Example : Image Hosting Application</t>
+  </si>
+  <si>
+    <t>At some point you have probably posted an image online. For big sites that host and deliver lots of images</t>
+  </si>
+  <si>
+    <t>there are challenges in building an architecture that is cost-effective, highly available, and has low latency</t>
+  </si>
+  <si>
+    <t>cost-effective, highly available, and has low latency</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>upload image to a central server</t>
+  </si>
+  <si>
+    <t>the image can be requested via a web link or API</t>
+  </si>
+  <si>
+    <t>this application has two key parts</t>
+  </si>
+  <si>
+    <t>the ability to upload (write) an image to server</t>
+  </si>
+  <si>
+    <t>the ability to query for an image</t>
+  </si>
+  <si>
+    <t>While we certainly want the upload to be effient, we care most about having very fast delivery when someone requests an image</t>
+  </si>
+  <si>
+    <t>This is very simila functionality to what a web server or Content Delivery Network(CDN) edge server</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There will be no limit to the number of images that will be stored, so storage scalability </t>
+  </si>
+  <si>
+    <t>There needs to be low latency for image download/request</t>
+  </si>
+  <si>
+    <t>If a user uploads an image, the image always should be there (data reliability for image)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system should be easy to maintain </t>
+  </si>
+  <si>
+    <t>Since image hosting does not have high profit margins, the system needs to be cost-effective</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>SOA - service oriented architecture</t>
+  </si>
+  <si>
+    <t>Hash 
+using Vector</t>
+  </si>
+  <si>
+    <t>2 problem
+survey - rubik OOP design</t>
+  </si>
+  <si>
+    <t>Part 1 - Clone -&gt;  MVC model works everywhere in OOP and System Design for seperating Model(Data) Controller</t>
+  </si>
+  <si>
+    <t>web application server -&gt; controller</t>
+  </si>
+  <si>
+    <t>database (or cache) -&gt; model</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Part 3- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Cache</t>
+    </r>
+  </si>
+  <si>
+    <t>At primitive level it's just connecting users with remote resources via the Internet - the part that makes it scalable is that the resources,</t>
+  </si>
+  <si>
+    <t>or access to those resources, are distirubted across multiple servers.</t>
+  </si>
+  <si>
+    <t>Design problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; not coding problem line by line. Instread of that, how to rearrange module, select right module, and tradeoff b/w them</t>
+  </si>
+  <si>
+    <t>the system must be perceivably fast, its data stored reliably and all of these attributes highly scalable</t>
+  </si>
+  <si>
+    <t>We want to build something that could grow as big as Flickr</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When considering scalable system design, it helps to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>decouple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> functionality and think about each part of the system as its </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>own service</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">with a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>clearly defined interface</t>
+    </r>
+  </si>
+  <si>
+    <t>its own distinct functional context</t>
+  </si>
+  <si>
+    <t>interface between them, typically the public-facing API of another service</t>
+  </si>
+  <si>
+    <t>decouples the operation of those pieces from one another</t>
+  </si>
+  <si>
+    <t>relationship between the service</t>
+  </si>
+  <si>
+    <t>its underlying environment</t>
+  </si>
+  <si>
+    <t>the consumers of that service</t>
+  </si>
+  <si>
+    <t>-&gt; isolate problem, each piece to scale independently of one another</t>
+  </si>
+  <si>
+    <t>This sort of service-oriented design for system is very similar to object-oriented design for programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In our example, all requests to upload and retrieve images are processed by the same server; </t>
+  </si>
+  <si>
+    <t>however as the system needs to scale it make sense to break out these two functions into their own services</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>Read can be asynchronous, or take advantage of other performance optimization like gzip compression or chunked transfer encoding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write tend to maintain an open connection for the durationfor the upload </t>
+  </si>
+  <si>
+    <t>Planning for this sort of bottleneck makes a good case to split out reads and writes of image into their own services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this allow us to scale each of them independently, also help clarify what is going on at each point. </t>
+  </si>
+  <si>
+    <t>easier to troubleshoot and scale a problem like slow reads</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The advantage of this approache is that we are able to solve problems </t>
     </r>
     <r>
       <rPr>
@@ -489,272 +1069,104 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Cache</t>
-    </r>
-  </si>
-  <si>
-    <t>Part 4- Asynchronism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To avoid such a "please wait a while"  - situation, asynchronism needs to be done. And what's good for a bakery, is maybe also good for your web service or app </t>
-  </si>
-  <si>
-    <t>In general, there are two ways /paradigms asynchronism can be done</t>
-  </si>
-  <si>
-    <t>Async #1</t>
-  </si>
-  <si>
-    <t>Async #2</t>
-  </si>
-  <si>
-    <t>pre processing for some tasks which need a lot of time to be processed</t>
-  </si>
-  <si>
-    <t>dynamic web page -&gt; static web page(HTML)</t>
-  </si>
-  <si>
-    <t>for request, not in cache or static web page</t>
-  </si>
-  <si>
-    <t>using job queue, and immediately signal back to the users</t>
-  </si>
-  <si>
-    <t>RabbitMQ</t>
-  </si>
-  <si>
-    <t>System Design Interview Tips</t>
-  </si>
-  <si>
-    <t>Clarify the constaints and identify the user cases</t>
-  </si>
-  <si>
-    <t>Scope of System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User cases indicate </t>
-  </si>
-  <si>
-    <t>the main function of system</t>
-  </si>
-  <si>
-    <t>constraints list the scale of the system such as requests per second, requests type, data written per second, data read per second</t>
-  </si>
-  <si>
-    <t>High level architecture design</t>
-  </si>
-  <si>
-    <t>Sketch the important component and connection between them</t>
-  </si>
-  <si>
-    <t>Usually, a scalable system includes web server(load balancer), service(service partition), database(master/slave database)</t>
-  </si>
-  <si>
-    <t>Component Design</t>
-  </si>
-  <si>
-    <t>For each component, you need to write the specific APIs for each component</t>
-  </si>
-  <si>
-    <t>OOD design for a particular function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">need to design the database schema </t>
-  </si>
-  <si>
-    <t>How to ace a system desgin interview</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The system design interview is all about </t>
+      <t>independently</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>communication</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Whatever solution you come up with during the interview is just a side effect. What we actually care about is the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>process</t>
-    </r>
-  </si>
-  <si>
-    <t>We take ownership of open-ended problems</t>
-  </si>
-  <si>
-    <t>We need people we can trust to do the right thing without a lot of supervision-people  who can own large projects and take them consistently in the right direction</t>
-  </si>
-  <si>
-    <t>It' an open-ended conversation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usually we'll start by asking you to design a system that performs a given task. </t>
-  </si>
-  <si>
-    <t>The prompt will be simple, but don't be fooled - these problems are wide and bottomless, and the point of the interview is to see how much volume you can cover in 45 minutes</t>
-  </si>
-  <si>
-    <t>For the most part, you'll be steering the conversation. It's up to you to understand the problem.</t>
-  </si>
-  <si>
-    <t>asking question</t>
-  </si>
-  <si>
-    <t>sketching diagram on the board</t>
-  </si>
-  <si>
-    <t>bouncing ideas off your interviewer</t>
-  </si>
-  <si>
-    <t>constaints</t>
-  </si>
-  <si>
-    <t>What kind of inputs does your system need to handle</t>
-  </si>
-  <si>
-    <t>You have to get a sense for the scope of the problem before you start exploring the space of possible solutions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No single answer </t>
-  </si>
-  <si>
-    <t>Everything is a tradeoff</t>
-  </si>
-  <si>
-    <t>Topics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systems are complex, and when you're designing a system you're grappling with its full complexity. </t>
-  </si>
-  <si>
-    <t>Given this, there are many topics you should be familiar with, such as</t>
-  </si>
-  <si>
-    <t>Cucurrency</t>
-  </si>
-  <si>
-    <t>Networking</t>
-  </si>
-  <si>
-    <t>Abstraction</t>
-  </si>
-  <si>
-    <t>Real-world performance</t>
-  </si>
-  <si>
-    <t>Estimation</t>
-  </si>
-  <si>
-    <t>Availability and Reliability</t>
-  </si>
-  <si>
-    <t>thread, deadlock, and starvation.</t>
-  </si>
-  <si>
-    <t>Do you know how to parallelize algorithm</t>
-  </si>
-  <si>
-    <t>consistency and coherence</t>
-  </si>
-  <si>
-    <t>roughly understand IPC and TCP/IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the difference between throughput and latency </t>
-  </si>
-  <si>
-    <t>and where each is the relevent factor</t>
-  </si>
-  <si>
-    <t>OS, filesystem, database, the various levels of caching in the modern OS?</t>
-  </si>
-  <si>
-    <t>You should be familiar with the speed of everything your computer can do</t>
-  </si>
-  <si>
-    <t>include the relative performance of RAM, disk, SSD and network</t>
-  </si>
-  <si>
-    <t>distributed envirnoment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you know how to design a system to cope with network failure? </t>
-  </si>
-  <si>
-    <t>duralbility</t>
-  </si>
-  <si>
-    <t>We're not looking for mastery of all these topics, but looking for familarity</t>
-  </si>
-  <si>
-    <t>How to prepare?</t>
-  </si>
-  <si>
-    <t>Do mock design sessions</t>
-  </si>
-  <si>
-    <t>Grap an empty room and a fellow engineer, and ask them to give a design problem, preferably related to something they have worked on</t>
-  </si>
-  <si>
-    <t>Work on actual system</t>
-  </si>
-  <si>
-    <t>actually focus on the architecture and the tradeoffs behind each decision.</t>
-  </si>
-  <si>
-    <t>Contirbute to OSS or build something with a friend</t>
-  </si>
-  <si>
-    <t>Treat your class projects as more than just academic exercise</t>
-  </si>
-  <si>
-    <t>As with most things, the best way to learn is by doing</t>
-  </si>
-  <si>
-    <t>Do back-of-the-envelope calculations for something you're building and then write micro-benchmarks to verify them</t>
-  </si>
-  <si>
-    <t>Dig into the performance characteristics of an open source system</t>
-  </si>
-  <si>
-    <t>trade off</t>
-  </si>
-  <si>
-    <t>Learn how databases and operating system work</t>
-  </si>
-  <si>
-    <t>https://www.hiredintech.com/courses/system-design</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>http://www.aosabook.org/en/index.html</t>
-  </si>
-  <si>
-    <t>Scalable Web Architecture and Distributed Systems</t>
+      <t xml:space="preserve"> of one another</t>
+    </r>
+  </si>
+  <si>
+    <t>we do not have to worrry about writing and retrieving new images in the same context</t>
+  </si>
+  <si>
+    <t>similary to Cloud Strorage Provider, Content Delivery Networks</t>
+  </si>
+  <si>
+    <t>how to divide each function?</t>
+  </si>
+  <si>
+    <t>Redundancy</t>
+  </si>
+  <si>
+    <t>In order to handle failure gracefully a web architecture must have redundancy of its services and data</t>
+  </si>
+  <si>
+    <t>If there is only one copy of a file stored on a single server, then losing  server means losing that file. A common way of handling it is to create multiple, or redundant copies.</t>
+  </si>
+  <si>
+    <t>Creating redundancy in a system can remove single point of failure and provide a backup or spare functionality if needed  in a crisis</t>
+  </si>
+  <si>
+    <t>Failover</t>
+  </si>
+  <si>
+    <t>Failover can happen automatically or require manual intervention</t>
+  </si>
+  <si>
+    <t>Another key part of service redundancy is creating a a shared-nothing architectue. \</t>
+  </si>
+  <si>
+    <t>No central brain managing state or coordinating activities for the other nodes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-&gt; This helps a lot with scalability since new nodes can be added without special conditions or knowledge. </t>
+  </si>
+  <si>
+    <t>Partitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There may be very large data sets that are unable to fit on a single server. It may also be the case that an operation require too </t>
+  </si>
+  <si>
+    <t>many computing resources, diminishing performance and making it necessary to add capacity</t>
+  </si>
+  <si>
+    <t>In either case you have two choices: scale vertically or horizontally</t>
+  </si>
+  <si>
+    <t>Scale vertically means adding more resources to an individual server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more hdd, faster CPU, more memory, </t>
+  </si>
+  <si>
+    <t>In each case, vertical scaling is accomplished by making the individual resource capable of handling more on its own</t>
+  </si>
+  <si>
+    <t>To scale horizontally is to add more nodes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the case of the larget data set, this might be a second server to store parts of that data set </t>
+  </si>
+  <si>
+    <t>Partition, shard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geographically, pay or not pay, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -789,7 +1201,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri (Body)"/>
     </font>
@@ -802,7 +1214,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -810,6 +1222,85 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -835,14 +1326,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,6 +1361,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>18275</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>18274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9564</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>118778</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123815" y="51366475"/>
+          <a:ext cx="5244886" cy="3316619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9136</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>37291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>356330</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>38771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114676" y="57050241"/>
+          <a:ext cx="4778489" cy="3016588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9137</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>48753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9616</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>67301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1116577" y="68354433"/>
+          <a:ext cx="6909279" cy="3472948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>29534</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>98449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>492250</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>9845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1132170" y="78267441"/>
+          <a:ext cx="7403413" cy="3839536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1147,7 +1834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E28"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A4" zoomScale="134" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="134" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1232,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R29"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A4" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showRuler="0" zoomScale="114" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1289,19 +1976,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" ht="48" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>15</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="G7" s="8"/>
+    </row>
+    <row r="11" spans="2:18" ht="64" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>17</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
@@ -1331,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I181"/>
+  <dimension ref="B3:I394"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A164" zoomScale="139" workbookViewId="0">
-      <selection activeCell="M176" sqref="M176"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A375" zoomScale="129" workbookViewId="0">
+      <selection activeCell="B379" sqref="B379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1346,695 +2040,1217 @@
     <col min="8" max="8" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="4"/>
+      <c r="D9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="4"/>
+      <c r="D10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E17" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E14" t="s">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="1" t="s">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="G20" t="s">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="G21" t="s">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E25" t="s">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C35" s="4" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E38" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F39" t="s">
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F41" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F43" t="s">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C49" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D50" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D47" t="s">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E49" t="s">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E52" t="s">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E53" t="s">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E55" t="s">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="F56" t="s">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G57" t="s">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G58" t="s">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G59" t="s">
+    <row r="63" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H63" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="H60" s="2" t="s">
+    <row r="64" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I64" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I61" t="s">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="F62" t="s">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G63" t="s">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G64" t="s">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="G65" t="s">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="G67" t="s">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="H68" t="s">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="H69" t="s">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H73" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="H70" t="s">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="H71" t="s">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="G73" t="s">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="H74" t="s">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="H75" t="s">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C81" s="4" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D80" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D86" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E87" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E88" t="s">
+    <row r="95" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B95" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E89" t="s">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B92" s="3" t="s">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C93" t="s">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D94" t="s">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D95" t="s">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E100" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D100" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B111" s="14" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B108" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C109" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C110" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C115" s="6" t="s">
-        <v>124</v>
+      <c r="C115" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D116" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D117" t="s">
-        <v>126</v>
+      <c r="C116" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C118" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E120" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E121" t="s">
-        <v>129</v>
+      <c r="D120" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E122" t="s">
-        <v>130</v>
+      <c r="D122" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E123" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E124" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E125" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E126" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E127" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E128" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C129" s="6" t="s">
-        <v>136</v>
+      <c r="E129" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D130" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D131" t="s">
-        <v>138</v>
+      <c r="E130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C132" s="7" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E134" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E135" t="s">
-        <v>146</v>
+      <c r="D134" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E136" t="s">
-        <v>147</v>
+      <c r="D136" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E137" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D138" t="s">
-        <v>140</v>
+      <c r="E138" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E139" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E140" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E141" t="s">
-        <v>150</v>
+      <c r="D141" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E142" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D143" t="s">
-        <v>141</v>
+      <c r="E143" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="144" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E144" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D146" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E147" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D149" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="150" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E150" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E151" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D146" t="s">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D153" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="155" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D155" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E147" t="s">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E156" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E148" t="s">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E157" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D150" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D152" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E153" t="s">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E158" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E154" t="s">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D160" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E155" t="s">
+    <row r="162" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C162" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D157" t="s">
+    <row r="163" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D163" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C159" s="6" t="s">
+    <row r="164" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E164" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D160" s="4" t="s">
+    <row r="166" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D166" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E161" t="s">
+    <row r="167" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E167" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D163" s="4" t="s">
+    <row r="168" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E168" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E164" t="s">
+    <row r="169" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E169" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E165" t="s">
+    <row r="170" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E170" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E166" t="s">
+    <row r="172" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D172" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E167" t="s">
+    <row r="174" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D174" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D169" s="4" t="s">
+    <row r="175" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E175" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D171" s="4" t="s">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D177" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E172" t="s">
+    <row r="179" spans="2:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="B179" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C180" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D174" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B176" t="s">
+    <row r="183" spans="2:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="B183" s="14" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C177" t="s">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B180" t="s">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C186" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="C187" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="C188" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C190" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D191" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D192" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="193" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D193" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="195" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D195" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="197" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E197" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="198" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F198" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="199" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F199" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="200" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F200" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="201" spans="4:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F201" s="5"/>
+    </row>
+    <row r="202" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E202" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="203" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F203" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="204" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F204" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="206" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E206" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="208" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E208" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="209" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F209" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="210" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F210" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="211" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F211" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="213" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E213" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="215" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E215" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="217" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C217" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="218" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D218" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="219" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E219" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="220" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E220" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="221" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E221" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="223" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E223" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="225" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E225" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="226" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="F226" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="229" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D229" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="230" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E230" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="231" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E231" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="233" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E233" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="235" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E235" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="236" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F236" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="237" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F237" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="238" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F238" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="239" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G239" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="240" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G240" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="242" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F242" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="243" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F243" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="245" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F245" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="246" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F246" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="247" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F247" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="248" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F248" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="249" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F249" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="250" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F250" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="272" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D272" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="273" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D273" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="276" spans="4:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="D276" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="277" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E277" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="278" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E278" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="280" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E280" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="299" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E299" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="300" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E300" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="302" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E302" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="303" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F303" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="304" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F304" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="305" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F305" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="307" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F307" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="308" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F308" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="309" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E309" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="310" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E310" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="311" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E311" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="312" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E312" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="313" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E313" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="314" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E314" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="316" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E316" s="18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="318" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F318" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="319" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F319" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="321" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E321" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="322" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F322" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="324" spans="4:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="E324" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="325" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E325" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="328" spans="4:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="D328" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="329" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E329" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="330" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E330" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="351" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E351" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="352" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E352" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="353" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E353" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="355" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E355" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="356" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E356" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="357" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F357" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="360" spans="4:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="D360" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="361" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E361" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="362" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E362" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="363" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E363" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="366" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E366" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="367" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F367" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="368" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F368" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="370" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E370" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="371" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F371" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="373" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E373" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="394" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F394" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="138" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="113.33203125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C181" t="s">
-        <v>172</v>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
